--- a/SimulatorUser/ExportData/Test 0 User 1.xlsx
+++ b/SimulatorUser/ExportData/Test 0 User 1.xlsx
@@ -17,8 +17,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="DD/MM/YYYY HH:MM"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,6 +32,10 @@
     <font>
       <name val="Calibri"/>
       <sz val="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,12 +58,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:P3"/>
+  <dimension ref="B3:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,6 +544,2074 @@
       </c>
       <c r="P3" s="2" t="n"/>
     </row>
+    <row r="4">
+      <c r="B4" s="5" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>13.852</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2.529</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>11.323</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.3225371397948031</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>30.68539142206394</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>10.99997727732161</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>32.33749517143086</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="5" t="n">
+        <v>44228.01041666666</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>13.929</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>2.599</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.3330909753879212</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>31.39320974476327</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>10.99648179832329</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>34.6742475535745</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="5" t="n">
+        <v>44228.02083333334</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>13.718</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.377</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>11.341</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.3445886245871592</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>32.12546057201096</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>10.99618561381107</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>37.01093699650931</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="5" t="n">
+        <v>44228.03125</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>42.45</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>13.498</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.145</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>11.353</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.3570491085069896</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>32.8841899275883</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>10.99595425701007</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>39.34757727612389</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="5" t="n">
+        <v>44228.04166666666</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>42.79</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>12.529</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>1.163</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>11.366</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.370598716707842</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>33.67171220059248</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>10.99561025208812</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>41.68414445469258</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="n">
+        <v>44228.05208333334</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>13.959</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.578</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>11.381</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.3853938703930915</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>34.4906741751778</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>10.99511870905012</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>44.02060718036569</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="5" t="n">
+        <v>44228.0625</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>43.45</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>13.385</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.989</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>11.396</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.4016347695090854</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>35.34414806038464</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>10.99475327008726</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>46.35699225025918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="5" t="n">
+        <v>44228.07291666666</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>43.78</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>1.176</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>11.414</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.4195433599793417</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>36.23567770034076</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>10.99421405267868</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>48.69326273645334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="5" t="n">
+        <v>44228.08333333334</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>12.793</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>11.433</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.4394128914684351</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>37.16943009471117</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>10.99367476641063</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>51.02941862431558</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="5" t="n">
+        <v>44228.09375</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>44.42</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.386</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>11.454</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.4615875355152859</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>38.15030360768115</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>10.99278857645558</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>53.36538619681237</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="5" t="n">
+        <v>44228.10416666666</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>44.74</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>13.207</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>11.478</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.4865367751286037</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>39.18419425482942</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>10.99194960735244</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>55.70117548837474</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="5" t="n">
+        <v>44228.11458333334</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>45.07</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>13.424</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>11.506</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.5148382419393662</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>40.27822551895056</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>10.99100508182805</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>58.0367640682632</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="5" t="n">
+        <v>44228.125</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>12.996</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>11.537</v>
+      </c>
+      <c r="L16" s="6" t="n">
+        <v>0.5472473265494077</v>
+      </c>
+      <c r="M16" s="6" t="n">
+        <v>41.44112608786806</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <v>10.98975616315962</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>60.37208725293461</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="5" t="n">
+        <v>44228.13541666666</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>45.73</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>12.743</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6" t="n">
+        <v>11.573</v>
+      </c>
+      <c r="L17" s="6" t="n">
+        <v>0.584777703027089</v>
+      </c>
+      <c r="M17" s="6" t="n">
+        <v>42.68377870680061</v>
+      </c>
+      <c r="N17" s="6" t="n">
+        <v>10.98803368407716</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>62.707044410801</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="5" t="n">
+        <v>44228.14583333334</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>46.05</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>14.189</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>2.574</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="n">
+        <v>11.615</v>
+      </c>
+      <c r="L18" s="6" t="n">
+        <v>0.6288425730743628</v>
+      </c>
+      <c r="M18" s="6" t="n">
+        <v>44.02006917458364</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>10.98604474269331</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>65.04157891862333</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="5" t="n">
+        <v>44228.15625</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6" t="n">
+        <v>11.665</v>
+      </c>
+      <c r="L19" s="6" t="n">
+        <v>0.6814052698017447</v>
+      </c>
+      <c r="M19" s="6" t="n">
+        <v>45.46805537291234</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>10.98346615496757</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>67.37556547655406</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="5" t="n">
+        <v>44228.125</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>46.72</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>13.013</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6" t="n">
+        <v>11.725</v>
+      </c>
+      <c r="L20" s="6" t="n">
+        <v>0.7453519661141819</v>
+      </c>
+      <c r="M20" s="6" t="n">
+        <v>47.05192830090495</v>
+      </c>
+      <c r="N20" s="6" t="n">
+        <v>10.98011689500069</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>69.70884031674181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="5" t="n">
+        <v>44228.17708333334</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>47.04</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>14.541</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>2.741</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L21" s="6" t="n">
+        <v>0.8250599211482988</v>
+      </c>
+      <c r="M21" s="6" t="n">
+        <v>48.80518063334511</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>10.97530023697636</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>72.04109161709941</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="5" t="n">
+        <v>44228.1875</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>47.41</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>14.977</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6" t="n">
+        <v>11.877</v>
+      </c>
+      <c r="L22" s="6" t="n">
+        <v>0.9261472275690411</v>
+      </c>
+      <c r="M22" s="6" t="n">
+        <v>50.77324349192934</v>
+      </c>
+      <c r="N22" s="6" t="n">
+        <v>10.95068610576429</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>74.36811241457431</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="5" t="n">
+        <v>44228.19791666666</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>47.78</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>13.462</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>1.443</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6" t="n">
+        <v>12.019</v>
+      </c>
+      <c r="L23" s="6" t="n">
+        <v>1.064964918453595</v>
+      </c>
+      <c r="M23" s="6" t="n">
+        <v>53.03629394364322</v>
+      </c>
+      <c r="N23" s="6" t="n">
+        <v>10.95413304299127</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>76.69586568621006</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="5" t="n">
+        <v>44228.16666666666</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>48.12</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>16.257</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>5.853</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6" t="n">
+        <v>10.404</v>
+      </c>
+      <c r="L24" s="6" t="n">
+        <v>1.079478587028204</v>
+      </c>
+      <c r="M24" s="6" t="n">
+        <v>55.33018594107815</v>
+      </c>
+      <c r="N24" s="6" t="n">
+        <v>9.324088079638459</v>
+      </c>
+      <c r="O24" s="6" t="n">
+        <v>78.67723440313318</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="5" t="n">
+        <v>44228.21875</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>13.989</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>6.437</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6" t="n">
+        <v>7.552</v>
+      </c>
+      <c r="L25" s="6" t="n">
+        <v>1.197354209749097</v>
+      </c>
+      <c r="M25" s="6" t="n">
+        <v>57.87456363679498</v>
+      </c>
+      <c r="N25" s="6" t="n">
+        <v>6.355138502314378</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>80.02770133487499</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="5" t="n">
+        <v>44228.22916666666</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>48.87</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>6.289</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>4.189</v>
+      </c>
+      <c r="I26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L26" s="6" t="n">
+        <v>2.100495208356365</v>
+      </c>
+      <c r="M26" s="6" t="n">
+        <v>62.33811595455225</v>
+      </c>
+      <c r="N26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6" t="n">
+        <v>80.02770133487499</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="5" t="n">
+        <v>44228.23958333334</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>49.03</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>11.443</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>8.138999999999999</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="n">
+        <v>3.304</v>
+      </c>
+      <c r="L27" s="6" t="n">
+        <v>3.303938311360075</v>
+      </c>
+      <c r="M27" s="6" t="n">
+        <v>69.3589848661924</v>
+      </c>
+      <c r="N27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6" t="n">
+        <v>80.02770133487499</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="5" t="n">
+        <v>44228.20833333334</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>49.32</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>7.456</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <v>12.456</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M28" s="6" t="n">
+        <v>58.73398486619232</v>
+      </c>
+      <c r="N28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6" t="n">
+        <v>80.02770133487499</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="5" t="n">
+        <v>44228.26041666666</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="I29" s="6" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="J29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6" t="n">
+        <v>-2.914</v>
+      </c>
+      <c r="M29" s="6" t="n">
+        <v>52.54173486619241</v>
+      </c>
+      <c r="N29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6" t="n">
+        <v>80.02770133487499</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="5" t="n">
+        <v>44228.27083333334</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>2.828</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <v>2.611</v>
+      </c>
+      <c r="J30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6" t="n">
+        <v>-2.611</v>
+      </c>
+      <c r="M30" s="6" t="n">
+        <v>46.99335986619248</v>
+      </c>
+      <c r="N30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6" t="n">
+        <v>80.02770133487499</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="5" t="n">
+        <v>44228.28125</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="I31" s="6" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="J31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6" t="n">
+        <v>-0.6270000000000001</v>
+      </c>
+      <c r="M31" s="6" t="n">
+        <v>45.66098486619252</v>
+      </c>
+      <c r="N31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6" t="n">
+        <v>80.02770133487499</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="5" t="n">
+        <v>44228.25</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>6.098</v>
+      </c>
+      <c r="I32" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M32" s="6" t="n">
+        <v>35.03598486619251</v>
+      </c>
+      <c r="N32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6" t="n">
+        <v>80.02770133487499</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="5" t="n">
+        <v>44228.30208333334</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="I33" s="6" t="n">
+        <v>4.465</v>
+      </c>
+      <c r="J33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6" t="n">
+        <v>-4.465</v>
+      </c>
+      <c r="M33" s="6" t="n">
+        <v>25.54785986619252</v>
+      </c>
+      <c r="N33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="5" t="n">
+        <v>44228.3125</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <v>3.662</v>
+      </c>
+      <c r="I34" s="6" t="n">
+        <v>2.867</v>
+      </c>
+      <c r="J34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6" t="n">
+        <v>-2.867</v>
+      </c>
+      <c r="M34" s="6" t="n">
+        <v>19.45548486619252</v>
+      </c>
+      <c r="N34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="5" t="n">
+        <v>44228.32291666666</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="H35" s="6" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="I35" s="6" t="n">
+        <v>1.398</v>
+      </c>
+      <c r="J35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6" t="n">
+        <v>-1.398</v>
+      </c>
+      <c r="M35" s="6" t="n">
+        <v>16.48473486619257</v>
+      </c>
+      <c r="N35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="5" t="n">
+        <v>44228.29166666666</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <v>2.728</v>
+      </c>
+      <c r="I36" s="6" t="n">
+        <v>1.628</v>
+      </c>
+      <c r="J36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6" t="n">
+        <v>-1.628</v>
+      </c>
+      <c r="M36" s="6" t="n">
+        <v>13.02523486619254</v>
+      </c>
+      <c r="N36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="5" t="n">
+        <v>44228.34375</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>1.605</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="I37" s="6" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="J37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6" t="n">
+        <v>-0.206</v>
+      </c>
+      <c r="M37" s="6" t="n">
+        <v>12.58748486619251</v>
+      </c>
+      <c r="N37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="5" t="n">
+        <v>44228.35416666666</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>2.301</v>
+      </c>
+      <c r="I38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="K38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M38" s="6" t="n">
+        <v>12.62785986619249</v>
+      </c>
+      <c r="N38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="5" t="n">
+        <v>44228.36458333334</v>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>3.212</v>
+      </c>
+      <c r="H39" s="6" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="I39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="K39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="M39" s="6" t="n">
+        <v>17.0606098661925</v>
+      </c>
+      <c r="N39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="5" t="n">
+        <v>44228.33333333334</v>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>4.136</v>
+      </c>
+      <c r="H40" s="6" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="I40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6" t="n">
+        <v>2.213</v>
+      </c>
+      <c r="K40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6" t="n">
+        <v>2.213</v>
+      </c>
+      <c r="M40" s="6" t="n">
+        <v>21.7632348661925</v>
+      </c>
+      <c r="N40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="5" t="n">
+        <v>44228.38541666666</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>5.023</v>
+      </c>
+      <c r="H41" s="6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6" t="n">
+        <v>3.493</v>
+      </c>
+      <c r="K41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6" t="n">
+        <v>3.493</v>
+      </c>
+      <c r="M41" s="6" t="n">
+        <v>29.18585986619254</v>
+      </c>
+      <c r="N41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="5" t="n">
+        <v>44228.39583333334</v>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>5.905</v>
+      </c>
+      <c r="H42" s="6" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="I42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6" t="n">
+        <v>2.645</v>
+      </c>
+      <c r="K42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6" t="n">
+        <v>2.645</v>
+      </c>
+      <c r="M42" s="6" t="n">
+        <v>34.80648486619258</v>
+      </c>
+      <c r="N42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="5" t="n">
+        <v>44228.40625</v>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>6.797</v>
+      </c>
+      <c r="H43" s="6" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="I43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M43" s="6" t="n">
+        <v>45.43148486619258</v>
+      </c>
+      <c r="N43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="5" t="n">
+        <v>44228.375</v>
+      </c>
+      <c r="C44" s="7" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="D44" s="7" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>2.187</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="H44" s="6" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="I44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M44" s="6" t="n">
+        <v>56.05648486619267</v>
+      </c>
+      <c r="N44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="5" t="n">
+        <v>44228.42708333334</v>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>49.85</v>
+      </c>
+      <c r="D45" s="7" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>2.467</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>8.583</v>
+      </c>
+      <c r="H45" s="6" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="I45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M45" s="6" t="n">
+        <v>66.68148486619278</v>
+      </c>
+      <c r="N45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="5" t="n">
+        <v>44228.4375</v>
+      </c>
+      <c r="C46" s="7" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D46" s="7" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>2.293</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>9.297000000000001</v>
+      </c>
+      <c r="H46" s="6" t="n">
+        <v>2.004</v>
+      </c>
+      <c r="I46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M46" s="6" t="n">
+        <v>77.30648486619286</v>
+      </c>
+      <c r="N46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="5" t="n">
+        <v>44228.44791666666</v>
+      </c>
+      <c r="C47" s="7" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="D47" s="7" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>3.088</v>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="H47" s="6" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="I47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M47" s="6" t="n">
+        <v>87.93148486619282</v>
+      </c>
+      <c r="N47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="5" t="n">
+        <v>44228.41666666666</v>
+      </c>
+      <c r="C48" s="7" t="n">
+        <v>49.69</v>
+      </c>
+      <c r="D48" s="7" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>10.703</v>
+      </c>
+      <c r="H48" s="6" t="n">
+        <v>1.594</v>
+      </c>
+      <c r="I48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M48" s="6" t="n">
+        <v>98.55648486619263</v>
+      </c>
+      <c r="N48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="5" t="n">
+        <v>44228.46875</v>
+      </c>
+      <c r="C49" s="7" t="n">
+        <v>49.61</v>
+      </c>
+      <c r="D49" s="7" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="E49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>8.019</v>
+      </c>
+      <c r="G49" s="6" t="n">
+        <v>11.389</v>
+      </c>
+      <c r="H49" s="6" t="n">
+        <v>2.537</v>
+      </c>
+      <c r="I49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="K49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M49" s="6" t="n">
+        <v>100.3273181995259</v>
+      </c>
+      <c r="N49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="5" t="n">
+        <v>44228.47916666666</v>
+      </c>
+      <c r="C50" s="7" t="n">
+        <v>49.45</v>
+      </c>
+      <c r="D50" s="7" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>10.314</v>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>11.927</v>
+      </c>
+      <c r="H50" s="6" t="n">
+        <v>1.613</v>
+      </c>
+      <c r="I50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6" t="n">
+        <v>100.3273181995259</v>
+      </c>
+      <c r="N50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -533,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:P3"/>
+  <dimension ref="B3:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,6 +2721,2074 @@
       </c>
       <c r="P3" s="2" t="n"/>
     </row>
+    <row r="4">
+      <c r="B4" s="5" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>2.831</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.08063428494870076</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>30.68539142206394</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>2.749994319330402</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>32.33749517143086</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="5" t="n">
+        <v>44228.01041666666</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>3.482</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.08327274384698032</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>31.39320974476327</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>2.749120449580823</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>34.6742475535745</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="5" t="n">
+        <v>44228.02083333334</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>3.429</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.835</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.08614715614678982</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>32.12546057201096</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>2.749046403452767</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>37.01093699650931</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="5" t="n">
+        <v>44228.03125</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>42.45</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.838</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.08926227712674738</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>32.8841899275883</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>2.748988564252519</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>39.34757727612389</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="5" t="n">
+        <v>44228.04166666666</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>42.79</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>2.842</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.09264967917696054</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>33.67171220059248</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>2.748902563022028</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>41.68414445469258</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="n">
+        <v>44228.05208333334</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.845</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.09634846759827286</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>34.4906741751778</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>2.74877967726253</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>44.02060718036569</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="5" t="n">
+        <v>44228.0625</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>43.45</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>3.346</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>2.849</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.1004086923772713</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>35.34414806038464</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>2.748688317521815</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>46.35699225025918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="5" t="n">
+        <v>44228.07291666666</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>43.78</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>3.147</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>2.853</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.1048858399948354</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>36.23567770034076</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>2.748553513169671</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>48.69326273645334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="5" t="n">
+        <v>44228.08333333334</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>3.198</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.858</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.1098532228671087</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>37.16943009471117</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>2.748418691602658</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>51.02941862431558</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="5" t="n">
+        <v>44228.09375</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>44.42</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>2.864</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1153968838788214</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>38.15030360768115</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>2.748197144113895</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>53.36538619681237</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="5" t="n">
+        <v>44228.10416666666</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>44.74</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>3.302</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.1216341937821509</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>39.18419425482942</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>2.747987401838111</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>55.70117548837474</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="5" t="n">
+        <v>44228.11458333334</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>45.07</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>3.356</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.876</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.1287095604848416</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>40.27822551895056</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>2.747751270457012</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>58.0367640682632</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="5" t="n">
+        <v>44228.125</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>3.249</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>2.884</v>
+      </c>
+      <c r="L16" s="6" t="n">
+        <v>0.1368118316373519</v>
+      </c>
+      <c r="M16" s="6" t="n">
+        <v>41.44112608786806</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <v>2.747439040789905</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>60.37208725293461</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="5" t="n">
+        <v>44228.13541666666</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>45.73</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6" t="n">
+        <v>2.893</v>
+      </c>
+      <c r="L17" s="6" t="n">
+        <v>0.1461944257567722</v>
+      </c>
+      <c r="M17" s="6" t="n">
+        <v>42.68377870680061</v>
+      </c>
+      <c r="N17" s="6" t="n">
+        <v>2.747008421019291</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>62.707044410801</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="5" t="n">
+        <v>44228.14583333334</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>46.05</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>3.547</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="n">
+        <v>2.904</v>
+      </c>
+      <c r="L18" s="6" t="n">
+        <v>0.1572106432685908</v>
+      </c>
+      <c r="M18" s="6" t="n">
+        <v>44.02006917458364</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>2.746511185673327</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>65.04157891862333</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="5" t="n">
+        <v>44228.15625</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6" t="n">
+        <v>2.916</v>
+      </c>
+      <c r="L19" s="6" t="n">
+        <v>0.1703513174504362</v>
+      </c>
+      <c r="M19" s="6" t="n">
+        <v>45.46805537291234</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>2.745866538741892</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>67.37556547655406</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="5" t="n">
+        <v>44228.125</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>46.72</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>3.253</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6" t="n">
+        <v>2.931</v>
+      </c>
+      <c r="L20" s="6" t="n">
+        <v>0.1863379915285454</v>
+      </c>
+      <c r="M20" s="6" t="n">
+        <v>47.05192830090495</v>
+      </c>
+      <c r="N20" s="6" t="n">
+        <v>2.745029223750171</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>69.70884031674181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="5" t="n">
+        <v>44228.17708333334</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>47.04</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>3.635</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="L21" s="6" t="n">
+        <v>0.2062649802870747</v>
+      </c>
+      <c r="M21" s="6" t="n">
+        <v>48.80518063334511</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>2.743825059244089</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>72.04109161709941</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="5" t="n">
+        <v>44228.1875</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>47.41</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6" t="n">
+        <v>2.969</v>
+      </c>
+      <c r="L22" s="6" t="n">
+        <v>0.2315368068922603</v>
+      </c>
+      <c r="M22" s="6" t="n">
+        <v>50.77324349192934</v>
+      </c>
+      <c r="N22" s="6" t="n">
+        <v>2.737671526441073</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>74.36811241457431</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="5" t="n">
+        <v>44228.19791666666</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>47.78</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>3.366</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="L23" s="6" t="n">
+        <v>0.2662412296133989</v>
+      </c>
+      <c r="M23" s="6" t="n">
+        <v>53.03629394364322</v>
+      </c>
+      <c r="N23" s="6" t="n">
+        <v>2.738533260747816</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>76.69586568621006</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="5" t="n">
+        <v>44228.16666666666</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>48.12</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>4.064</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1.463</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6" t="n">
+        <v>2.601</v>
+      </c>
+      <c r="L24" s="6" t="n">
+        <v>0.2698696467570509</v>
+      </c>
+      <c r="M24" s="6" t="n">
+        <v>55.33018594107815</v>
+      </c>
+      <c r="N24" s="6" t="n">
+        <v>2.331022019909616</v>
+      </c>
+      <c r="O24" s="6" t="n">
+        <v>78.67723440313318</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="5" t="n">
+        <v>44228.21875</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>3.497</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>1.609</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="L25" s="6" t="n">
+        <v>0.2993385524372743</v>
+      </c>
+      <c r="M25" s="6" t="n">
+        <v>57.87456363679498</v>
+      </c>
+      <c r="N25" s="6" t="n">
+        <v>1.588784625578594</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>80.02770133487499</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="5" t="n">
+        <v>44228.22916666666</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>48.87</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>1.572</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>1.047</v>
+      </c>
+      <c r="I26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="L26" s="6" t="n">
+        <v>0.5251238020890912</v>
+      </c>
+      <c r="M26" s="6" t="n">
+        <v>62.33811595455225</v>
+      </c>
+      <c r="N26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6" t="n">
+        <v>80.02770133487499</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="5" t="n">
+        <v>44228.23958333334</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>49.03</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>2.861</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>2.035</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="L27" s="6" t="n">
+        <v>0.8259845778400187</v>
+      </c>
+      <c r="M27" s="6" t="n">
+        <v>69.3589848661924</v>
+      </c>
+      <c r="N27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6" t="n">
+        <v>80.02770133487499</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="5" t="n">
+        <v>44228.20833333334</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>49.32</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>1.864</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <v>3.114</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="M28" s="6" t="n">
+        <v>58.73398486619232</v>
+      </c>
+      <c r="N28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6" t="n">
+        <v>80.02770133487499</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="5" t="n">
+        <v>44228.26041666666</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="I29" s="6" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="J29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6" t="n">
+        <v>-0.7285</v>
+      </c>
+      <c r="M29" s="6" t="n">
+        <v>52.54173486619241</v>
+      </c>
+      <c r="N29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6" t="n">
+        <v>80.02770133487499</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="5" t="n">
+        <v>44228.27083333334</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="J30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6" t="n">
+        <v>-0.6527500000000001</v>
+      </c>
+      <c r="M30" s="6" t="n">
+        <v>46.99335986619248</v>
+      </c>
+      <c r="N30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6" t="n">
+        <v>80.02770133487499</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="5" t="n">
+        <v>44228.28125</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="I31" s="6" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="J31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6" t="n">
+        <v>-0.15675</v>
+      </c>
+      <c r="M31" s="6" t="n">
+        <v>45.66098486619252</v>
+      </c>
+      <c r="N31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6" t="n">
+        <v>80.02770133487499</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="5" t="n">
+        <v>44228.25</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>1.524</v>
+      </c>
+      <c r="I32" s="6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="M32" s="6" t="n">
+        <v>35.03598486619251</v>
+      </c>
+      <c r="N32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6" t="n">
+        <v>80.02770133487499</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="5" t="n">
+        <v>44228.30208333334</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <v>1.285</v>
+      </c>
+      <c r="I33" s="6" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="J33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6" t="n">
+        <v>-1.11625</v>
+      </c>
+      <c r="M33" s="6" t="n">
+        <v>25.54785986619252</v>
+      </c>
+      <c r="N33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="5" t="n">
+        <v>44228.3125</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="I34" s="6" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="J34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6" t="n">
+        <v>-0.71675</v>
+      </c>
+      <c r="M34" s="6" t="n">
+        <v>19.45548486619252</v>
+      </c>
+      <c r="N34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="5" t="n">
+        <v>44228.32291666666</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="H35" s="6" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="I35" s="6" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6" t="n">
+        <v>-0.3495</v>
+      </c>
+      <c r="M35" s="6" t="n">
+        <v>16.48473486619257</v>
+      </c>
+      <c r="N35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="5" t="n">
+        <v>44228.29166666666</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="I36" s="6" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="J36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6" t="n">
+        <v>-0.407</v>
+      </c>
+      <c r="M36" s="6" t="n">
+        <v>13.02523486619254</v>
+      </c>
+      <c r="N36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="5" t="n">
+        <v>44228.34375</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="I37" s="6" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="J37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6" t="n">
+        <v>-0.0515</v>
+      </c>
+      <c r="M37" s="6" t="n">
+        <v>12.58748486619251</v>
+      </c>
+      <c r="N37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="5" t="n">
+        <v>44228.35416666666</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6" t="n">
+        <v>0.00475</v>
+      </c>
+      <c r="M38" s="6" t="n">
+        <v>12.62785986619249</v>
+      </c>
+      <c r="N38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="5" t="n">
+        <v>44228.36458333334</v>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="H39" s="6" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="I39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="K39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6" t="n">
+        <v>0.5215</v>
+      </c>
+      <c r="M39" s="6" t="n">
+        <v>17.0606098661925</v>
+      </c>
+      <c r="N39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="5" t="n">
+        <v>44228.33333333334</v>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>1.034</v>
+      </c>
+      <c r="H40" s="6" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="I40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="K40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6" t="n">
+        <v>0.55325</v>
+      </c>
+      <c r="M40" s="6" t="n">
+        <v>21.7632348661925</v>
+      </c>
+      <c r="N40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="5" t="n">
+        <v>44228.38541666666</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>1.256</v>
+      </c>
+      <c r="H41" s="6" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="I41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="K41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6" t="n">
+        <v>0.87325</v>
+      </c>
+      <c r="M41" s="6" t="n">
+        <v>29.18585986619254</v>
+      </c>
+      <c r="N41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="5" t="n">
+        <v>44228.39583333334</v>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>1.476</v>
+      </c>
+      <c r="H42" s="6" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="K42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6" t="n">
+        <v>0.66125</v>
+      </c>
+      <c r="M42" s="6" t="n">
+        <v>34.80648486619258</v>
+      </c>
+      <c r="N42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="5" t="n">
+        <v>44228.40625</v>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="D43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="H43" s="6" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="I43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M43" s="6" t="n">
+        <v>45.43148486619258</v>
+      </c>
+      <c r="N43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="5" t="n">
+        <v>44228.375</v>
+      </c>
+      <c r="C44" s="7" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="D44" s="7" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="H44" s="6" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="I44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M44" s="6" t="n">
+        <v>56.05648486619267</v>
+      </c>
+      <c r="N44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="5" t="n">
+        <v>44228.42708333334</v>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>49.85</v>
+      </c>
+      <c r="D45" s="7" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>2.146</v>
+      </c>
+      <c r="H45" s="6" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="I45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M45" s="6" t="n">
+        <v>66.68148486619278</v>
+      </c>
+      <c r="N45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="5" t="n">
+        <v>44228.4375</v>
+      </c>
+      <c r="C46" s="7" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D46" s="7" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>2.324</v>
+      </c>
+      <c r="H46" s="6" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="I46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M46" s="6" t="n">
+        <v>77.30648486619286</v>
+      </c>
+      <c r="N46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="5" t="n">
+        <v>44228.44791666666</v>
+      </c>
+      <c r="C47" s="7" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="D47" s="7" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>2.505</v>
+      </c>
+      <c r="H47" s="6" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="I47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M47" s="6" t="n">
+        <v>87.93148486619282</v>
+      </c>
+      <c r="N47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="5" t="n">
+        <v>44228.41666666666</v>
+      </c>
+      <c r="C48" s="7" t="n">
+        <v>49.69</v>
+      </c>
+      <c r="D48" s="7" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>2.676</v>
+      </c>
+      <c r="H48" s="6" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="I48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M48" s="6" t="n">
+        <v>98.55648486619263</v>
+      </c>
+      <c r="N48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="5" t="n">
+        <v>44228.46875</v>
+      </c>
+      <c r="C49" s="7" t="n">
+        <v>49.61</v>
+      </c>
+      <c r="D49" s="7" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="E49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="G49" s="6" t="n">
+        <v>2.847</v>
+      </c>
+      <c r="H49" s="6" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="I49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="K49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="M49" s="6" t="n">
+        <v>100.3273181995259</v>
+      </c>
+      <c r="N49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="5" t="n">
+        <v>44228.47916666666</v>
+      </c>
+      <c r="C50" s="7" t="n">
+        <v>49.45</v>
+      </c>
+      <c r="D50" s="7" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>2.578</v>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>2.982</v>
+      </c>
+      <c r="H50" s="6" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="I50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6" t="n">
+        <v>100.3273181995259</v>
+      </c>
+      <c r="N50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SimulatorUser/ExportData/Test 0 User 1.xlsx
+++ b/SimulatorUser/ExportData/Test 0 User 1.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:P50"/>
+  <dimension ref="B3:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,13 +549,13 @@
         <v>44228</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>41.41</v>
+        <v>49.24</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.32</v>
+        <v>-0.2</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>13.852</v>
+        <v>11.587</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0</v>
@@ -573,19 +573,19 @@
         <v>0</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>11.323</v>
+        <v>9.058</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>0.3225371397948031</v>
+        <v>0.2582838006565402</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>30.68539142206394</v>
+        <v>30.54885307639514</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>10.99997727732161</v>
+        <v>8.799997183832865</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>32.33749517143086</v>
+        <v>31.8699994015645</v>
       </c>
     </row>
     <row r="5">
@@ -593,13 +593,13 @@
         <v>44228.01041666666</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>41.76</v>
+        <v>49.53</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>13.929</v>
+        <v>4.863</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>0</v>
@@ -617,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="K5" s="6" t="n">
-        <v>11.33</v>
+        <v>2.264</v>
       </c>
       <c r="L5" s="6" t="n">
-        <v>0.3330909753879212</v>
+        <v>0.06696209097258192</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>31.39320974476327</v>
+        <v>30.69114751971188</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>10.99648179832329</v>
+        <v>2.197271242360752</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>34.6742475535745</v>
+        <v>32.33691954056616</v>
       </c>
     </row>
     <row r="6">
@@ -637,13 +637,13 @@
         <v>44228.02083333334</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>42.11</v>
+        <v>49.65</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13.718</v>
+        <v>2.377</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>11.341</v>
+        <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>0.3445886245871592</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>32.12546057201096</v>
+        <v>30.69114751971188</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>10.99618561381107</v>
+        <v>0</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>37.01093699650931</v>
+        <v>32.33691954056616</v>
       </c>
     </row>
     <row r="7">
@@ -681,13 +681,13 @@
         <v>44228.03125</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>42.45</v>
+        <v>49.71</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.34</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13.498</v>
+        <v>2.145</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0</v>
@@ -705,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11.353</v>
+        <v>0</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>0.3570491085069896</v>
+        <v>0</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>32.8841899275883</v>
+        <v>30.69114751971188</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>10.99595425701007</v>
+        <v>0</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>39.34757727612389</v>
+        <v>32.33691954056616</v>
       </c>
     </row>
     <row r="8">
@@ -725,13 +725,13 @@
         <v>44228.04166666666</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>42.79</v>
+        <v>49.77</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>12.529</v>
+        <v>1.163</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>11.366</v>
+        <v>0</v>
       </c>
       <c r="L8" s="6" t="n">
-        <v>0.370598716707842</v>
+        <v>0</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>33.67171220059248</v>
+        <v>30.69114751971188</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>10.99561025208812</v>
+        <v>0</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>41.68414445469258</v>
+        <v>32.33691954056616</v>
       </c>
     </row>
     <row r="9">
@@ -769,13 +769,13 @@
         <v>44228.05208333334</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>43.1</v>
+        <v>49.8</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>13.959</v>
+        <v>2.578</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>0</v>
@@ -793,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>11.381</v>
+        <v>0</v>
       </c>
       <c r="L9" s="6" t="n">
-        <v>0.3853938703930915</v>
+        <v>0</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>34.4906741751778</v>
+        <v>30.69114751971188</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>10.99511870905012</v>
+        <v>0</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>44.02060718036569</v>
+        <v>32.33691954056616</v>
       </c>
     </row>
     <row r="10">
@@ -813,13 +813,13 @@
         <v>44228.0625</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>43.45</v>
+        <v>49.86</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13.385</v>
+        <v>1.989</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -837,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11.396</v>
+        <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>0.4016347695090854</v>
+        <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>35.34414806038464</v>
+        <v>30.69114751971188</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>10.99475327008726</v>
+        <v>0</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>46.35699225025918</v>
+        <v>32.33691954056616</v>
       </c>
     </row>
     <row r="11">
@@ -857,13 +857,13 @@
         <v>44228.07291666666</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>43.78</v>
+        <v>49.91</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>0.33</v>
+        <v>0.04</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12.59</v>
+        <v>10.336</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>0</v>
@@ -881,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>11.414</v>
+        <v>9.16</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>0.4195433599793417</v>
+        <v>0.3604725411718439</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>36.23567770034076</v>
+        <v>31.45715166970204</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>10.99421405267868</v>
+        <v>8.79990718417484</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>48.69326273645334</v>
+        <v>34.20689981720327</v>
       </c>
     </row>
     <row r="12">
@@ -901,13 +901,13 @@
         <v>44228.08333333334</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>44.1</v>
+        <v>50.17</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>12.793</v>
+        <v>12.827</v>
       </c>
       <c r="F12" s="6" t="n">
         <v>0</v>
@@ -925,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="K12" s="6" t="n">
-        <v>11.433</v>
+        <v>11.467</v>
       </c>
       <c r="L12" s="6" t="n">
-        <v>0.4394128914684351</v>
+        <v>0.4723897206236133</v>
       </c>
       <c r="M12" s="6" t="n">
-        <v>37.16943009471117</v>
+        <v>32.46097982602723</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>10.99367476641063</v>
+        <v>10.99477736514498</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>51.02941862431558</v>
+        <v>36.54329000729653</v>
       </c>
     </row>
     <row r="13">
@@ -945,13 +945,13 @@
         <v>44228.09375</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>44.42</v>
+        <v>50.49</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>12.84</v>
+        <v>12.876</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0</v>
@@ -969,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>11.454</v>
+        <v>11.49</v>
       </c>
       <c r="L13" s="6" t="n">
-        <v>0.4615875355152859</v>
+        <v>0.4962417288650814</v>
       </c>
       <c r="M13" s="6" t="n">
-        <v>38.15030360768115</v>
+        <v>33.51549349986552</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>10.99278857645558</v>
+        <v>10.99420297911015</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>53.36538619681237</v>
+        <v>38.87955814035738</v>
       </c>
     </row>
     <row r="14">
@@ -989,13 +989,13 @@
         <v>44228.10416666666</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>44.74</v>
+        <v>50.81</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>0.32</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13.207</v>
+        <v>13.246</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
@@ -1013,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>11.478</v>
+        <v>11.517</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>0.4865367751286037</v>
+        <v>0.5230721572363053</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>39.18419425482942</v>
+        <v>34.62702183399266</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>10.99194960735244</v>
+        <v>10.99355868969163</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>55.70117548837474</v>
+        <v>41.21568936191679</v>
       </c>
     </row>
     <row r="15">
@@ -1033,13 +1033,13 @@
         <v>44228.11458333334</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>45.07</v>
+        <v>51.14</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>0.33</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13.424</v>
+        <v>13.464</v>
       </c>
       <c r="F15" s="6" t="n">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11.506</v>
+        <v>11.546</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>0.5148382419393662</v>
+        <v>0.5535075922862488</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>40.27822551895056</v>
+        <v>35.80322546760091</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>10.99100508182805</v>
+        <v>10.99281738990836</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>58.0367640682632</v>
+        <v>43.55166305727226</v>
       </c>
     </row>
     <row r="16">
@@ -1077,13 +1077,13 @@
         <v>44228.125</v>
       </c>
       <c r="C16" s="7" t="n">
-        <v>45.4</v>
+        <v>51.48</v>
       </c>
       <c r="D16" s="7" t="n">
         <v>0.33</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>12.996</v>
+        <v>13.039</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="K16" s="6" t="n">
-        <v>11.537</v>
+        <v>11.58</v>
       </c>
       <c r="L16" s="6" t="n">
-        <v>0.5472473265494077</v>
+        <v>0.5883607060076678</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>41.44112608786806</v>
+        <v>37.05349196786719</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>10.98975616315962</v>
+        <v>10.99178750816172</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>60.37208725293461</v>
+        <v>45.88741790275657</v>
       </c>
     </row>
     <row r="17">
@@ -1121,13 +1121,13 @@
         <v>44228.13541666666</v>
       </c>
       <c r="C17" s="7" t="n">
-        <v>45.73</v>
+        <v>51.81</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>0.32</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>12.743</v>
+        <v>12.789</v>
       </c>
       <c r="F17" s="6" t="n">
         <v>0</v>
@@ -1145,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="K17" s="6" t="n">
-        <v>11.573</v>
+        <v>11.619</v>
       </c>
       <c r="L17" s="6" t="n">
-        <v>0.584777703027089</v>
+        <v>0.6287316456213026</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>42.68377870680061</v>
+        <v>38.38954671481246</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>10.98803368407716</v>
+        <v>10.99047769647385</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>62.707044410801</v>
+        <v>48.22289441325722</v>
       </c>
     </row>
     <row r="18">
@@ -1165,13 +1165,13 @@
         <v>44228.14583333334</v>
       </c>
       <c r="C18" s="7" t="n">
-        <v>46.05</v>
+        <v>52.12</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>0.31</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14.189</v>
+        <v>14.239</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>11.615</v>
+        <v>11.665</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>0.6288425730743628</v>
+        <v>0.6761213726149897</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>44.02006917458364</v>
+        <v>39.82630463161932</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>10.98604474269331</v>
+        <v>10.98875410680175</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>65.04157891862333</v>
+        <v>50.55800466095255</v>
       </c>
     </row>
     <row r="19">
@@ -1209,13 +1209,13 @@
         <v>44228.15625</v>
       </c>
       <c r="C19" s="7" t="n">
-        <v>46.4</v>
+        <v>52.48</v>
       </c>
       <c r="D19" s="7" t="n">
         <v>0.35</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12.7</v>
+        <v>3.369</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0</v>
@@ -1233,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>11.665</v>
+        <v>2.334</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>0.6814052698017447</v>
+        <v>0.147360904792087</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>45.46805537291234</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>10.98346615496757</v>
+        <v>2.186739095207913</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>67.37556547655406</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="20">
@@ -1253,13 +1253,13 @@
         <v>44228.125</v>
       </c>
       <c r="C20" s="7" t="n">
-        <v>46.72</v>
+        <v>52.56</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>13.013</v>
+        <v>1.288</v>
       </c>
       <c r="F20" s="6" t="n">
         <v>0</v>
@@ -1277,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>11.725</v>
+        <v>0</v>
       </c>
       <c r="L20" s="6" t="n">
-        <v>0.7453519661141819</v>
+        <v>0</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>47.05192830090495</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>10.98011689500069</v>
+        <v>0</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>69.70884031674181</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="21">
@@ -1297,13 +1297,13 @@
         <v>44228.17708333334</v>
       </c>
       <c r="C21" s="7" t="n">
-        <v>47.04</v>
+        <v>52.6</v>
       </c>
       <c r="D21" s="7" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>14.541</v>
+        <v>2.741</v>
       </c>
       <c r="F21" s="6" t="n">
         <v>0</v>
@@ -1321,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="L21" s="6" t="n">
-        <v>0.8250599211482988</v>
+        <v>0</v>
       </c>
       <c r="M21" s="6" t="n">
-        <v>48.80518063334511</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>10.97530023697636</v>
+        <v>0</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>72.04109161709941</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="22">
@@ -1341,13 +1341,13 @@
         <v>44228.1875</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>47.41</v>
+        <v>52.67</v>
       </c>
       <c r="D22" s="7" t="n">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>14.977</v>
+        <v>3.1</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
@@ -1365,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>11.877</v>
+        <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>0.9261472275690411</v>
+        <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>50.77324349192934</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>10.95068610576429</v>
+        <v>0</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>74.36811241457431</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="23">
@@ -1385,13 +1385,13 @@
         <v>44228.19791666666</v>
       </c>
       <c r="C23" s="7" t="n">
-        <v>47.78</v>
+        <v>52.67</v>
       </c>
       <c r="D23" s="7" t="n">
-        <v>0.37</v>
+        <v>0.06</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>13.462</v>
+        <v>1.443</v>
       </c>
       <c r="F23" s="6" t="n">
         <v>0</v>
@@ -1409,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>12.019</v>
+        <v>0</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1.064964918453595</v>
+        <v>0</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>53.03629394364322</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>10.95413304299127</v>
+        <v>0</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>76.69586568621006</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="24">
@@ -1429,13 +1429,13 @@
         <v>44228.16666666666</v>
       </c>
       <c r="C24" s="7" t="n">
-        <v>48.12</v>
+        <v>52.67</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>0.33</v>
+        <v>0.06</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>16.257</v>
+        <v>5.853</v>
       </c>
       <c r="F24" s="6" t="n">
         <v>0</v>
@@ -1453,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="K24" s="6" t="n">
-        <v>10.404</v>
+        <v>0</v>
       </c>
       <c r="L24" s="6" t="n">
-        <v>1.079478587028204</v>
+        <v>0</v>
       </c>
       <c r="M24" s="6" t="n">
-        <v>55.33018594107815</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>9.324088079638459</v>
+        <v>0</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>78.67723440313318</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="25">
@@ -1473,13 +1473,13 @@
         <v>44228.21875</v>
       </c>
       <c r="C25" s="7" t="n">
-        <v>48.52</v>
+        <v>52.67</v>
       </c>
       <c r="D25" s="7" t="n">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>13.989</v>
+        <v>6.437</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0</v>
@@ -1497,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>7.552</v>
+        <v>0</v>
       </c>
       <c r="L25" s="6" t="n">
-        <v>1.197354209749097</v>
+        <v>0</v>
       </c>
       <c r="M25" s="6" t="n">
-        <v>57.87456363679498</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>6.355138502314378</v>
+        <v>0</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>80.02770133487499</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="26">
@@ -1517,13 +1517,13 @@
         <v>44228.22916666666</v>
       </c>
       <c r="C26" s="7" t="n">
-        <v>48.87</v>
+        <v>52.67</v>
       </c>
       <c r="D26" s="7" t="n">
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6.289</v>
+        <v>4.189</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
@@ -1541,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2.100495208356365</v>
+        <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>62.33811595455225</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>80.02770133487499</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="27">
@@ -1561,13 +1561,13 @@
         <v>44228.23958333334</v>
       </c>
       <c r="C27" s="7" t="n">
-        <v>49.03</v>
+        <v>52.67</v>
       </c>
       <c r="D27" s="7" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11.443</v>
+        <v>8.138999999999999</v>
       </c>
       <c r="F27" s="6" t="n">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.304</v>
+        <v>0</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>3.303938311360075</v>
+        <v>0</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>69.3589848661924</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>80.02770133487499</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="28">
@@ -1605,10 +1605,10 @@
         <v>44228.20833333334</v>
       </c>
       <c r="C28" s="7" t="n">
-        <v>49.32</v>
+        <v>52.67</v>
       </c>
       <c r="D28" s="7" t="n">
-        <v>0.28</v>
+        <v>0.06</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>7.456</v>
@@ -1635,13 +1635,13 @@
         <v>-5</v>
       </c>
       <c r="M28" s="6" t="n">
-        <v>58.73398486619232</v>
+        <v>29.51444655430257</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>80.02770133487499</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="29">
@@ -1649,10 +1649,10 @@
         <v>44228.26041666666</v>
       </c>
       <c r="C29" s="7" t="n">
-        <v>49.88</v>
+        <v>52.67</v>
       </c>
       <c r="D29" s="7" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>0</v>
@@ -1679,13 +1679,13 @@
         <v>-2.914</v>
       </c>
       <c r="M29" s="6" t="n">
-        <v>52.54173486619241</v>
+        <v>23.32219655430256</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>80.02770133487499</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="30">
@@ -1693,10 +1693,10 @@
         <v>44228.27083333334</v>
       </c>
       <c r="C30" s="7" t="n">
-        <v>49.88</v>
+        <v>52.67</v>
       </c>
       <c r="D30" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0</v>
@@ -1723,13 +1723,13 @@
         <v>-2.611</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>46.99335986619248</v>
+        <v>17.77382155430258</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>80.02770133487499</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="31">
@@ -1737,10 +1737,10 @@
         <v>44228.28125</v>
       </c>
       <c r="C31" s="7" t="n">
-        <v>49.88</v>
+        <v>52.67</v>
       </c>
       <c r="D31" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>-0.6270000000000001</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>45.66098486619252</v>
+        <v>16.44144655430255</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>80.02770133487499</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="32">
@@ -1781,10 +1781,10 @@
         <v>44228.25</v>
       </c>
       <c r="C32" s="7" t="n">
-        <v>49.88</v>
+        <v>52.67</v>
       </c>
       <c r="D32" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>0.41</v>
@@ -1811,13 +1811,13 @@
         <v>-5</v>
       </c>
       <c r="M32" s="6" t="n">
-        <v>35.03598486619251</v>
+        <v>5.816446554302543</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>80.02770133487499</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="33">
@@ -1825,13 +1825,13 @@
         <v>44228.30208333334</v>
       </c>
       <c r="C33" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D33" s="7" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0</v>
+        <v>4.019</v>
       </c>
       <c r="F33" s="6" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>5.14</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>4.465</v>
+        <v>0.446</v>
       </c>
       <c r="J33" s="6" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="6" t="n">
-        <v>-4.465</v>
+        <v>-0.4465</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>25.54785986619252</v>
+        <v>4.867634054302544</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0</v>
@@ -1869,13 +1869,13 @@
         <v>44228.3125</v>
       </c>
       <c r="C34" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D34" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>0</v>
+        <v>2.867</v>
       </c>
       <c r="F34" s="6" t="n">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>3.662</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2.867</v>
+        <v>0</v>
       </c>
       <c r="J34" s="6" t="n">
         <v>0</v>
@@ -1896,10 +1896,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>-2.867</v>
+        <v>0</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>19.45548486619252</v>
+        <v>4.867634054302544</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0</v>
@@ -1913,13 +1913,13 @@
         <v>44228.32291666666</v>
       </c>
       <c r="C35" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D35" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>0</v>
+        <v>1.398</v>
       </c>
       <c r="F35" s="6" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>2.245</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1.398</v>
+        <v>0</v>
       </c>
       <c r="J35" s="6" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>-1.398</v>
+        <v>0</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>16.48473486619257</v>
+        <v>4.867634054302544</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0</v>
@@ -1957,13 +1957,13 @@
         <v>44228.29166666666</v>
       </c>
       <c r="C36" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D36" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>0</v>
+        <v>1.628</v>
       </c>
       <c r="F36" s="6" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>2.728</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>1.628</v>
+        <v>0</v>
       </c>
       <c r="J36" s="6" t="n">
         <v>0</v>
@@ -1984,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="6" t="n">
-        <v>-1.628</v>
+        <v>0</v>
       </c>
       <c r="M36" s="6" t="n">
-        <v>13.02523486619254</v>
+        <v>4.867634054302544</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         <v>44228.34375</v>
       </c>
       <c r="C37" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D37" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0</v>
+        <v>0.206</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>1.811</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.206</v>
+        <v>0</v>
       </c>
       <c r="J37" s="6" t="n">
         <v>0</v>
@@ -2028,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="6" t="n">
-        <v>-0.206</v>
+        <v>0</v>
       </c>
       <c r="M37" s="6" t="n">
-        <v>12.58748486619251</v>
+        <v>4.867634054302544</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0</v>
@@ -2045,10 +2045,10 @@
         <v>44228.35416666666</v>
       </c>
       <c r="C38" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D38" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0.019</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>12.62785986619249</v>
+        <v>4.908009054302558</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>44228.36458333334</v>
       </c>
       <c r="C39" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D39" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>2.086</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>17.0606098661925</v>
+        <v>9.34075905430257</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0</v>
@@ -2133,10 +2133,10 @@
         <v>44228.33333333334</v>
       </c>
       <c r="C40" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D40" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>2.213</v>
       </c>
       <c r="M40" s="6" t="n">
-        <v>21.7632348661925</v>
+        <v>14.04338405430258</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>44228.38541666666</v>
       </c>
       <c r="C41" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D41" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>3.493</v>
       </c>
       <c r="M41" s="6" t="n">
-        <v>29.18585986619254</v>
+        <v>21.4660090543026</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>44228.39583333334</v>
       </c>
       <c r="C42" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D42" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>2.645</v>
       </c>
       <c r="M42" s="6" t="n">
-        <v>34.80648486619258</v>
+        <v>27.08663405430266</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>44228.40625</v>
       </c>
       <c r="C43" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D43" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>5</v>
       </c>
       <c r="M43" s="6" t="n">
-        <v>45.43148486619258</v>
+        <v>37.71163405430259</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>44228.375</v>
       </c>
       <c r="C44" s="7" t="n">
-        <v>49.89</v>
+        <v>54.73</v>
       </c>
       <c r="D44" s="7" t="n">
         <v>-0.01</v>
@@ -2339,7 +2339,7 @@
         <v>5</v>
       </c>
       <c r="M44" s="6" t="n">
-        <v>56.05648486619267</v>
+        <v>48.33663405430264</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>44228.42708333334</v>
       </c>
       <c r="C45" s="7" t="n">
-        <v>49.85</v>
+        <v>54.69</v>
       </c>
       <c r="D45" s="7" t="n">
         <v>-0.04</v>
@@ -2383,7 +2383,7 @@
         <v>5</v>
       </c>
       <c r="M45" s="6" t="n">
-        <v>66.68148486619278</v>
+        <v>58.96163405430273</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>44228.4375</v>
       </c>
       <c r="C46" s="7" t="n">
-        <v>49.8</v>
+        <v>54.64</v>
       </c>
       <c r="D46" s="7" t="n">
         <v>-0.04</v>
@@ -2427,7 +2427,7 @@
         <v>5</v>
       </c>
       <c r="M46" s="6" t="n">
-        <v>77.30648486619286</v>
+        <v>69.58663405430283</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>44228.44791666666</v>
       </c>
       <c r="C47" s="7" t="n">
-        <v>49.75</v>
+        <v>54.59</v>
       </c>
       <c r="D47" s="7" t="n">
         <v>-0.04</v>
@@ -2471,7 +2471,7 @@
         <v>5</v>
       </c>
       <c r="M47" s="6" t="n">
-        <v>87.93148486619282</v>
+        <v>80.21163405430293</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>44228.41666666666</v>
       </c>
       <c r="C48" s="7" t="n">
-        <v>49.69</v>
+        <v>54.53</v>
       </c>
       <c r="D48" s="7" t="n">
         <v>-0.06</v>
@@ -2515,7 +2515,7 @@
         <v>5</v>
       </c>
       <c r="M48" s="6" t="n">
-        <v>98.55648486619263</v>
+        <v>90.83663405430278</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>44228.46875</v>
       </c>
       <c r="C49" s="7" t="n">
-        <v>49.61</v>
+        <v>54.45</v>
       </c>
       <c r="D49" s="7" t="n">
         <v>-0.08</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>8.019</v>
+        <v>4.519</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>11.389</v>
@@ -2550,16 +2550,16 @@
         <v>0</v>
       </c>
       <c r="J49" s="6" t="n">
-        <v>0.833</v>
+        <v>4.333</v>
       </c>
       <c r="K49" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L49" s="6" t="n">
-        <v>0.8333333333333334</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="M49" s="6" t="n">
-        <v>100.3273181995259</v>
+        <v>100.0449673876359</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0</v>
@@ -2573,10 +2573,10 @@
         <v>44228.47916666666</v>
       </c>
       <c r="C50" s="7" t="n">
-        <v>49.45</v>
+        <v>54.36</v>
       </c>
       <c r="D50" s="7" t="n">
-        <v>-0.16</v>
+        <v>-0.09</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>0</v>
@@ -2603,12 +2603,100 @@
         <v>0</v>
       </c>
       <c r="M50" s="6" t="n">
-        <v>100.3273181995259</v>
+        <v>100.0449673876359</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O50" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="5" t="n">
+        <v>44228.48958333334</v>
+      </c>
+      <c r="C51" s="7" t="n">
+        <v>54.15</v>
+      </c>
+      <c r="D51" s="7" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>10.711</v>
+      </c>
+      <c r="G51" s="6" t="n">
+        <v>12.324</v>
+      </c>
+      <c r="H51" s="6" t="n">
+        <v>1.613</v>
+      </c>
+      <c r="I51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6" t="n">
+        <v>100.0449673876359</v>
+      </c>
+      <c r="N51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="5" t="n">
+        <v>44228.45833333334</v>
+      </c>
+      <c r="C52" s="7" t="n">
+        <v>53.94</v>
+      </c>
+      <c r="D52" s="7" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>11.562</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>12.758</v>
+      </c>
+      <c r="H52" s="6" t="n">
+        <v>1.196</v>
+      </c>
+      <c r="I52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6" t="n">
+        <v>100.0449673876359</v>
+      </c>
+      <c r="N52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2623,7 +2711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:P50"/>
+  <dimension ref="B3:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2726,13 +2814,13 @@
         <v>44228</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>41.41</v>
+        <v>49.24</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.32</v>
+        <v>-0.2</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>3.463</v>
+        <v>2.897</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0</v>
@@ -2750,19 +2838,19 @@
         <v>0</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>2.831</v>
+        <v>2.265</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>0.08063428494870076</v>
+        <v>0.06457095016413507</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>30.68539142206394</v>
+        <v>30.54885307639514</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>2.749994319330402</v>
+        <v>2.199999295958217</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>32.33749517143086</v>
+        <v>31.8699994015645</v>
       </c>
     </row>
     <row r="5">
@@ -2770,13 +2858,13 @@
         <v>44228.01041666666</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>41.76</v>
+        <v>49.53</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>3.482</v>
+        <v>1.216</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>0</v>
@@ -2794,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="K5" s="6" t="n">
-        <v>2.832</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="L5" s="6" t="n">
-        <v>0.08327274384698032</v>
+        <v>0.01674052274314548</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>31.39320974476327</v>
+        <v>30.69114751971188</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>2.749120449580823</v>
+        <v>0.5493178105901878</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>34.6742475535745</v>
+        <v>32.33691954056616</v>
       </c>
     </row>
     <row r="6">
@@ -2814,13 +2902,13 @@
         <v>44228.02083333334</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>42.11</v>
+        <v>49.65</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3.429</v>
+        <v>0.594</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -2838,19 +2926,19 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2.835</v>
+        <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>0.08614715614678982</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>32.12546057201096</v>
+        <v>30.69114751971188</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2.749046403452767</v>
+        <v>0</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>37.01093699650931</v>
+        <v>32.33691954056616</v>
       </c>
     </row>
     <row r="7">
@@ -2858,13 +2946,13 @@
         <v>44228.03125</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>42.45</v>
+        <v>49.71</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.34</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3.375</v>
+        <v>0.536</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0</v>
@@ -2882,19 +2970,19 @@
         <v>0</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2.838</v>
+        <v>0</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>0.08926227712674738</v>
+        <v>0</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>32.8841899275883</v>
+        <v>30.69114751971188</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>2.748988564252519</v>
+        <v>0</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>39.34757727612389</v>
+        <v>32.33691954056616</v>
       </c>
     </row>
     <row r="8">
@@ -2902,13 +2990,13 @@
         <v>44228.04166666666</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>42.79</v>
+        <v>49.77</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>3.132</v>
+        <v>0.291</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>0</v>
@@ -2926,19 +3014,19 @@
         <v>0</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>2.842</v>
+        <v>0</v>
       </c>
       <c r="L8" s="6" t="n">
-        <v>0.09264967917696054</v>
+        <v>0</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>33.67171220059248</v>
+        <v>30.69114751971188</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>2.748902563022028</v>
+        <v>0</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>41.68414445469258</v>
+        <v>32.33691954056616</v>
       </c>
     </row>
     <row r="9">
@@ -2946,13 +3034,13 @@
         <v>44228.05208333334</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>43.1</v>
+        <v>49.8</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.49</v>
+        <v>0.644</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>0</v>
@@ -2970,19 +3058,19 @@
         <v>0</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.845</v>
+        <v>0</v>
       </c>
       <c r="L9" s="6" t="n">
-        <v>0.09634846759827286</v>
+        <v>0</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>34.4906741751778</v>
+        <v>30.69114751971188</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>2.74877967726253</v>
+        <v>0</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>44.02060718036569</v>
+        <v>32.33691954056616</v>
       </c>
     </row>
     <row r="10">
@@ -2990,13 +3078,13 @@
         <v>44228.0625</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>43.45</v>
+        <v>49.86</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3.346</v>
+        <v>0.497</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -3014,19 +3102,19 @@
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2.849</v>
+        <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>0.1004086923772713</v>
+        <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>35.34414806038464</v>
+        <v>30.69114751971188</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2.748688317521815</v>
+        <v>0</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>46.35699225025918</v>
+        <v>32.33691954056616</v>
       </c>
     </row>
     <row r="11">
@@ -3034,13 +3122,13 @@
         <v>44228.07291666666</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>43.78</v>
+        <v>49.91</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>0.33</v>
+        <v>0.04</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3.147</v>
+        <v>2.584</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>0</v>
@@ -3058,19 +3146,19 @@
         <v>0</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>2.853</v>
+        <v>2.29</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>0.1048858399948354</v>
+        <v>0.09011813529296092</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>36.23567770034076</v>
+        <v>31.45715166970204</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>2.748553513169671</v>
+        <v>2.19997679604371</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>48.69326273645334</v>
+        <v>34.20689981720327</v>
       </c>
     </row>
     <row r="12">
@@ -3078,13 +3166,13 @@
         <v>44228.08333333334</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>44.1</v>
+        <v>50.17</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>3.198</v>
+        <v>3.207</v>
       </c>
       <c r="F12" s="6" t="n">
         <v>0</v>
@@ -3102,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="K12" s="6" t="n">
-        <v>2.858</v>
+        <v>2.867</v>
       </c>
       <c r="L12" s="6" t="n">
-        <v>0.1098532228671087</v>
+        <v>0.1180974301559033</v>
       </c>
       <c r="M12" s="6" t="n">
-        <v>37.16943009471117</v>
+        <v>32.46097982602723</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>2.748418691602658</v>
+        <v>2.748694341286245</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>51.02941862431558</v>
+        <v>36.54329000729653</v>
       </c>
     </row>
     <row r="13">
@@ -3122,13 +3210,13 @@
         <v>44228.09375</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>44.42</v>
+        <v>50.49</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>3.21</v>
+        <v>3.219</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0</v>
@@ -3146,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>2.864</v>
+        <v>2.873</v>
       </c>
       <c r="L13" s="6" t="n">
-        <v>0.1153968838788214</v>
+        <v>0.1240604322162703</v>
       </c>
       <c r="M13" s="6" t="n">
-        <v>38.15030360768115</v>
+        <v>33.51549349986552</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>2.748197144113895</v>
+        <v>2.748550744777538</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>53.36538619681237</v>
+        <v>38.87955814035738</v>
       </c>
     </row>
     <row r="14">
@@ -3166,13 +3254,13 @@
         <v>44228.10416666666</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>44.74</v>
+        <v>50.81</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>0.32</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3.302</v>
+        <v>3.311</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
@@ -3190,19 +3278,19 @@
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2.87</v>
+        <v>2.879</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>0.1216341937821509</v>
+        <v>0.1307680393090764</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>39.18419425482942</v>
+        <v>34.62702183399266</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>2.747987401838111</v>
+        <v>2.748389672422907</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>55.70117548837474</v>
+        <v>41.21568936191679</v>
       </c>
     </row>
     <row r="15">
@@ -3210,13 +3298,13 @@
         <v>44228.11458333334</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>45.07</v>
+        <v>51.14</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>0.33</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.356</v>
+        <v>3.366</v>
       </c>
       <c r="F15" s="6" t="n">
         <v>0</v>
@@ -3234,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.876</v>
+        <v>2.887</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>0.1287095604848416</v>
+        <v>0.1383768980715622</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>40.27822551895056</v>
+        <v>35.80322546760091</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>2.747751270457012</v>
+        <v>2.74820434747709</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>58.0367640682632</v>
+        <v>43.55166305727226</v>
       </c>
     </row>
     <row r="16">
@@ -3254,13 +3342,13 @@
         <v>44228.125</v>
       </c>
       <c r="C16" s="7" t="n">
-        <v>45.4</v>
+        <v>51.48</v>
       </c>
       <c r="D16" s="7" t="n">
         <v>0.33</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>3.249</v>
+        <v>3.26</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0</v>
@@ -3278,19 +3366,19 @@
         <v>0</v>
       </c>
       <c r="K16" s="6" t="n">
-        <v>2.884</v>
+        <v>2.895</v>
       </c>
       <c r="L16" s="6" t="n">
-        <v>0.1368118316373519</v>
+        <v>0.1470901765019171</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>41.44112608786806</v>
+        <v>37.05349196786719</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>2.747439040789905</v>
+        <v>2.74794687704043</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>60.37208725293461</v>
+        <v>45.88741790275657</v>
       </c>
     </row>
     <row r="17">
@@ -3298,13 +3386,13 @@
         <v>44228.13541666666</v>
       </c>
       <c r="C17" s="7" t="n">
-        <v>45.73</v>
+        <v>51.81</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>0.32</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>3.186</v>
+        <v>3.197</v>
       </c>
       <c r="F17" s="6" t="n">
         <v>0</v>
@@ -3322,19 +3410,19 @@
         <v>0</v>
       </c>
       <c r="K17" s="6" t="n">
-        <v>2.893</v>
+        <v>2.905</v>
       </c>
       <c r="L17" s="6" t="n">
-        <v>0.1461944257567722</v>
+        <v>0.1571829114053256</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>42.68377870680061</v>
+        <v>38.38954671481246</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>2.747008421019291</v>
+        <v>2.747619424118463</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>62.707044410801</v>
+        <v>48.22289441325722</v>
       </c>
     </row>
     <row r="18">
@@ -3342,13 +3430,13 @@
         <v>44228.14583333334</v>
       </c>
       <c r="C18" s="7" t="n">
-        <v>46.05</v>
+        <v>52.12</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>0.31</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3.547</v>
+        <v>3.56</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
@@ -3366,19 +3454,19 @@
         <v>0</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2.904</v>
+        <v>2.916</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>0.1572106432685908</v>
+        <v>0.1690303431537474</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>44.02006917458364</v>
+        <v>39.82630463161932</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2.746511185673327</v>
+        <v>2.747188526700437</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>65.04157891862333</v>
+        <v>50.55800466095255</v>
       </c>
     </row>
     <row r="19">
@@ -3386,13 +3474,13 @@
         <v>44228.15625</v>
       </c>
       <c r="C19" s="7" t="n">
-        <v>46.4</v>
+        <v>52.48</v>
       </c>
       <c r="D19" s="7" t="n">
         <v>0.35</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3.175</v>
+        <v>0.842</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0</v>
@@ -3410,19 +3498,19 @@
         <v>0</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2.916</v>
+        <v>0.584</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>0.1703513174504362</v>
+        <v>0.03684022619802174</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>45.46805537291234</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2.745866538741892</v>
+        <v>0.5466847738019783</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>67.37556547655406</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="20">
@@ -3430,13 +3518,13 @@
         <v>44228.125</v>
       </c>
       <c r="C20" s="7" t="n">
-        <v>46.72</v>
+        <v>52.56</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>3.253</v>
+        <v>0.322</v>
       </c>
       <c r="F20" s="6" t="n">
         <v>0</v>
@@ -3454,19 +3542,19 @@
         <v>0</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>2.931</v>
+        <v>0</v>
       </c>
       <c r="L20" s="6" t="n">
-        <v>0.1863379915285454</v>
+        <v>0</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>47.05192830090495</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>2.745029223750171</v>
+        <v>0</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>69.70884031674181</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="21">
@@ -3474,13 +3562,13 @@
         <v>44228.17708333334</v>
       </c>
       <c r="C21" s="7" t="n">
-        <v>47.04</v>
+        <v>52.6</v>
       </c>
       <c r="D21" s="7" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.635</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F21" s="6" t="n">
         <v>0</v>
@@ -3498,19 +3586,19 @@
         <v>0</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="L21" s="6" t="n">
-        <v>0.2062649802870747</v>
+        <v>0</v>
       </c>
       <c r="M21" s="6" t="n">
-        <v>48.80518063334511</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>2.743825059244089</v>
+        <v>0</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>72.04109161709941</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="22">
@@ -3518,13 +3606,13 @@
         <v>44228.1875</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>47.41</v>
+        <v>52.67</v>
       </c>
       <c r="D22" s="7" t="n">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3.744</v>
+        <v>0.775</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
@@ -3542,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2.969</v>
+        <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>0.2315368068922603</v>
+        <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>50.77324349192934</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2.737671526441073</v>
+        <v>0</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>74.36811241457431</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="23">
@@ -3562,13 +3650,13 @@
         <v>44228.19791666666</v>
       </c>
       <c r="C23" s="7" t="n">
-        <v>47.78</v>
+        <v>52.67</v>
       </c>
       <c r="D23" s="7" t="n">
-        <v>0.37</v>
+        <v>0.06</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3.366</v>
+        <v>0.361</v>
       </c>
       <c r="F23" s="6" t="n">
         <v>0</v>
@@ -3586,19 +3674,19 @@
         <v>0</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>0.2662412296133989</v>
+        <v>0</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>53.03629394364322</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2.738533260747816</v>
+        <v>0</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>76.69586568621006</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="24">
@@ -3606,13 +3694,13 @@
         <v>44228.16666666666</v>
       </c>
       <c r="C24" s="7" t="n">
-        <v>48.12</v>
+        <v>52.67</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>0.33</v>
+        <v>0.06</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>4.064</v>
+        <v>1.463</v>
       </c>
       <c r="F24" s="6" t="n">
         <v>0</v>
@@ -3630,19 +3718,19 @@
         <v>0</v>
       </c>
       <c r="K24" s="6" t="n">
-        <v>2.601</v>
+        <v>0</v>
       </c>
       <c r="L24" s="6" t="n">
-        <v>0.2698696467570509</v>
+        <v>0</v>
       </c>
       <c r="M24" s="6" t="n">
-        <v>55.33018594107815</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>2.331022019909616</v>
+        <v>0</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>78.67723440313318</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="25">
@@ -3650,13 +3738,13 @@
         <v>44228.21875</v>
       </c>
       <c r="C25" s="7" t="n">
-        <v>48.52</v>
+        <v>52.67</v>
       </c>
       <c r="D25" s="7" t="n">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>3.497</v>
+        <v>1.609</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0</v>
@@ -3674,19 +3762,19 @@
         <v>0</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.888</v>
+        <v>0</v>
       </c>
       <c r="L25" s="6" t="n">
-        <v>0.2993385524372743</v>
+        <v>0</v>
       </c>
       <c r="M25" s="6" t="n">
-        <v>57.87456363679498</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>1.588784625578594</v>
+        <v>0</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>80.02770133487499</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="26">
@@ -3694,13 +3782,13 @@
         <v>44228.22916666666</v>
       </c>
       <c r="C26" s="7" t="n">
-        <v>48.87</v>
+        <v>52.67</v>
       </c>
       <c r="D26" s="7" t="n">
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.572</v>
+        <v>1.047</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
@@ -3718,19 +3806,19 @@
         <v>0</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.525</v>
+        <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>0.5251238020890912</v>
+        <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>62.33811595455225</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>80.02770133487499</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="27">
@@ -3738,13 +3826,13 @@
         <v>44228.23958333334</v>
       </c>
       <c r="C27" s="7" t="n">
-        <v>49.03</v>
+        <v>52.67</v>
       </c>
       <c r="D27" s="7" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.861</v>
+        <v>2.035</v>
       </c>
       <c r="F27" s="6" t="n">
         <v>0</v>
@@ -3762,19 +3850,19 @@
         <v>0</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.826</v>
+        <v>0</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>0.8259845778400187</v>
+        <v>0</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>69.3589848661924</v>
+        <v>40.13944655430251</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>80.02770133487499</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="28">
@@ -3782,10 +3870,10 @@
         <v>44228.20833333334</v>
       </c>
       <c r="C28" s="7" t="n">
-        <v>49.32</v>
+        <v>52.67</v>
       </c>
       <c r="D28" s="7" t="n">
-        <v>0.28</v>
+        <v>0.06</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>1.864</v>
@@ -3812,13 +3900,13 @@
         <v>-1.25</v>
       </c>
       <c r="M28" s="6" t="n">
-        <v>58.73398486619232</v>
+        <v>29.51444655430257</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>80.02770133487499</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="29">
@@ -3826,10 +3914,10 @@
         <v>44228.26041666666</v>
       </c>
       <c r="C29" s="7" t="n">
-        <v>49.88</v>
+        <v>52.67</v>
       </c>
       <c r="D29" s="7" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>0</v>
@@ -3856,13 +3944,13 @@
         <v>-0.7285</v>
       </c>
       <c r="M29" s="6" t="n">
-        <v>52.54173486619241</v>
+        <v>23.32219655430256</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>80.02770133487499</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="30">
@@ -3870,10 +3958,10 @@
         <v>44228.27083333334</v>
       </c>
       <c r="C30" s="7" t="n">
-        <v>49.88</v>
+        <v>52.67</v>
       </c>
       <c r="D30" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0</v>
@@ -3900,13 +3988,13 @@
         <v>-0.6527500000000001</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>46.99335986619248</v>
+        <v>17.77382155430258</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>80.02770133487499</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="31">
@@ -3914,10 +4002,10 @@
         <v>44228.28125</v>
       </c>
       <c r="C31" s="7" t="n">
-        <v>49.88</v>
+        <v>52.67</v>
       </c>
       <c r="D31" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0</v>
@@ -3944,13 +4032,13 @@
         <v>-0.15675</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>45.66098486619252</v>
+        <v>16.44144655430255</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>80.02770133487499</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="32">
@@ -3958,10 +4046,10 @@
         <v>44228.25</v>
       </c>
       <c r="C32" s="7" t="n">
-        <v>49.88</v>
+        <v>52.67</v>
       </c>
       <c r="D32" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>0.102</v>
@@ -3988,13 +4076,13 @@
         <v>-1.25</v>
       </c>
       <c r="M32" s="6" t="n">
-        <v>35.03598486619251</v>
+        <v>5.816446554302543</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>80.02770133487499</v>
+        <v>51.02268671868424</v>
       </c>
     </row>
     <row r="33">
@@ -4002,13 +4090,13 @@
         <v>44228.30208333334</v>
       </c>
       <c r="C33" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D33" s="7" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0</v>
+        <v>1.005</v>
       </c>
       <c r="F33" s="6" t="n">
         <v>0</v>
@@ -4020,7 +4108,7 @@
         <v>1.285</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.116</v>
+        <v>0.112</v>
       </c>
       <c r="J33" s="6" t="n">
         <v>0</v>
@@ -4029,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="6" t="n">
-        <v>-1.11625</v>
+        <v>-0.111625</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>25.54785986619252</v>
+        <v>4.867634054302544</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0</v>
@@ -4046,13 +4134,13 @@
         <v>44228.3125</v>
       </c>
       <c r="C34" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D34" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>0</v>
+        <v>0.717</v>
       </c>
       <c r="F34" s="6" t="n">
         <v>0</v>
@@ -4064,7 +4152,7 @@
         <v>0.916</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.717</v>
+        <v>0</v>
       </c>
       <c r="J34" s="6" t="n">
         <v>0</v>
@@ -4073,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>-0.71675</v>
+        <v>0</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>19.45548486619252</v>
+        <v>4.867634054302544</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0</v>
@@ -4090,13 +4178,13 @@
         <v>44228.32291666666</v>
       </c>
       <c r="C35" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D35" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F35" s="6" t="n">
         <v>0</v>
@@ -4108,7 +4196,7 @@
         <v>0.5610000000000001</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J35" s="6" t="n">
         <v>0</v>
@@ -4117,10 +4205,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>-0.3495</v>
+        <v>0</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>16.48473486619257</v>
+        <v>4.867634054302544</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0</v>
@@ -4134,13 +4222,13 @@
         <v>44228.29166666666</v>
       </c>
       <c r="C36" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D36" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>0</v>
+        <v>0.407</v>
       </c>
       <c r="F36" s="6" t="n">
         <v>0</v>
@@ -4152,7 +4240,7 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.407</v>
+        <v>0</v>
       </c>
       <c r="J36" s="6" t="n">
         <v>0</v>
@@ -4161,10 +4249,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="6" t="n">
-        <v>-0.407</v>
+        <v>0</v>
       </c>
       <c r="M36" s="6" t="n">
-        <v>13.02523486619254</v>
+        <v>4.867634054302544</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0</v>
@@ -4178,13 +4266,13 @@
         <v>44228.34375</v>
       </c>
       <c r="C37" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D37" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0</v>
@@ -4196,7 +4284,7 @@
         <v>0.453</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="J37" s="6" t="n">
         <v>0</v>
@@ -4205,10 +4293,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="6" t="n">
-        <v>-0.0515</v>
+        <v>0</v>
       </c>
       <c r="M37" s="6" t="n">
-        <v>12.58748486619251</v>
+        <v>4.867634054302544</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0</v>
@@ -4222,10 +4310,10 @@
         <v>44228.35416666666</v>
       </c>
       <c r="C38" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D38" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>0</v>
@@ -4252,7 +4340,7 @@
         <v>0.00475</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>12.62785986619249</v>
+        <v>4.908009054302558</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0</v>
@@ -4266,10 +4354,10 @@
         <v>44228.36458333334</v>
       </c>
       <c r="C39" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D39" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>0</v>
@@ -4296,7 +4384,7 @@
         <v>0.5215</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>17.0606098661925</v>
+        <v>9.34075905430257</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0</v>
@@ -4310,10 +4398,10 @@
         <v>44228.33333333334</v>
       </c>
       <c r="C40" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D40" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>0</v>
@@ -4340,7 +4428,7 @@
         <v>0.55325</v>
       </c>
       <c r="M40" s="6" t="n">
-        <v>21.7632348661925</v>
+        <v>14.04338405430258</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0</v>
@@ -4354,10 +4442,10 @@
         <v>44228.38541666666</v>
       </c>
       <c r="C41" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D41" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>0</v>
@@ -4384,7 +4472,7 @@
         <v>0.87325</v>
       </c>
       <c r="M41" s="6" t="n">
-        <v>29.18585986619254</v>
+        <v>21.4660090543026</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0</v>
@@ -4398,10 +4486,10 @@
         <v>44228.39583333334</v>
       </c>
       <c r="C42" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D42" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>0</v>
@@ -4428,7 +4516,7 @@
         <v>0.66125</v>
       </c>
       <c r="M42" s="6" t="n">
-        <v>34.80648486619258</v>
+        <v>27.08663405430266</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0</v>
@@ -4442,10 +4530,10 @@
         <v>44228.40625</v>
       </c>
       <c r="C43" s="7" t="n">
-        <v>49.91</v>
+        <v>52.67</v>
       </c>
       <c r="D43" s="7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>0</v>
@@ -4472,7 +4560,7 @@
         <v>1.25</v>
       </c>
       <c r="M43" s="6" t="n">
-        <v>45.43148486619258</v>
+        <v>37.71163405430259</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0</v>
@@ -4486,7 +4574,7 @@
         <v>44228.375</v>
       </c>
       <c r="C44" s="7" t="n">
-        <v>49.89</v>
+        <v>54.73</v>
       </c>
       <c r="D44" s="7" t="n">
         <v>-0.01</v>
@@ -4516,7 +4604,7 @@
         <v>1.25</v>
       </c>
       <c r="M44" s="6" t="n">
-        <v>56.05648486619267</v>
+        <v>48.33663405430264</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0</v>
@@ -4530,7 +4618,7 @@
         <v>44228.42708333334</v>
       </c>
       <c r="C45" s="7" t="n">
-        <v>49.85</v>
+        <v>54.69</v>
       </c>
       <c r="D45" s="7" t="n">
         <v>-0.04</v>
@@ -4560,7 +4648,7 @@
         <v>1.25</v>
       </c>
       <c r="M45" s="6" t="n">
-        <v>66.68148486619278</v>
+        <v>58.96163405430273</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0</v>
@@ -4574,7 +4662,7 @@
         <v>44228.4375</v>
       </c>
       <c r="C46" s="7" t="n">
-        <v>49.8</v>
+        <v>54.64</v>
       </c>
       <c r="D46" s="7" t="n">
         <v>-0.04</v>
@@ -4604,7 +4692,7 @@
         <v>1.25</v>
       </c>
       <c r="M46" s="6" t="n">
-        <v>77.30648486619286</v>
+        <v>69.58663405430283</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0</v>
@@ -4618,7 +4706,7 @@
         <v>44228.44791666666</v>
       </c>
       <c r="C47" s="7" t="n">
-        <v>49.75</v>
+        <v>54.59</v>
       </c>
       <c r="D47" s="7" t="n">
         <v>-0.04</v>
@@ -4648,7 +4736,7 @@
         <v>1.25</v>
       </c>
       <c r="M47" s="6" t="n">
-        <v>87.93148486619282</v>
+        <v>80.21163405430293</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0</v>
@@ -4662,7 +4750,7 @@
         <v>44228.41666666666</v>
       </c>
       <c r="C48" s="7" t="n">
-        <v>49.69</v>
+        <v>54.53</v>
       </c>
       <c r="D48" s="7" t="n">
         <v>-0.06</v>
@@ -4692,7 +4780,7 @@
         <v>1.25</v>
       </c>
       <c r="M48" s="6" t="n">
-        <v>98.55648486619263</v>
+        <v>90.83663405430278</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0</v>
@@ -4706,7 +4794,7 @@
         <v>44228.46875</v>
       </c>
       <c r="C49" s="7" t="n">
-        <v>49.61</v>
+        <v>54.45</v>
       </c>
       <c r="D49" s="7" t="n">
         <v>-0.08</v>
@@ -4715,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>2.005</v>
+        <v>1.13</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>2.847</v>
@@ -4727,16 +4815,16 @@
         <v>0</v>
       </c>
       <c r="J49" s="6" t="n">
-        <v>0.208</v>
+        <v>1.083</v>
       </c>
       <c r="K49" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L49" s="6" t="n">
-        <v>0.2083333333333333</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="M49" s="6" t="n">
-        <v>100.3273181995259</v>
+        <v>100.0449673876359</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0</v>
@@ -4750,10 +4838,10 @@
         <v>44228.47916666666</v>
       </c>
       <c r="C50" s="7" t="n">
-        <v>49.45</v>
+        <v>54.36</v>
       </c>
       <c r="D50" s="7" t="n">
-        <v>-0.16</v>
+        <v>-0.09</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>0</v>
@@ -4780,12 +4868,100 @@
         <v>0</v>
       </c>
       <c r="M50" s="6" t="n">
-        <v>100.3273181995259</v>
+        <v>100.0449673876359</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0</v>
       </c>
       <c r="O50" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="5" t="n">
+        <v>44228.48958333334</v>
+      </c>
+      <c r="C51" s="7" t="n">
+        <v>54.15</v>
+      </c>
+      <c r="D51" s="7" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>2.678</v>
+      </c>
+      <c r="G51" s="6" t="n">
+        <v>3.081</v>
+      </c>
+      <c r="H51" s="6" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="I51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6" t="n">
+        <v>100.0449673876359</v>
+      </c>
+      <c r="N51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="5" t="n">
+        <v>44228.45833333334</v>
+      </c>
+      <c r="C52" s="7" t="n">
+        <v>53.94</v>
+      </c>
+      <c r="D52" s="7" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="H52" s="6" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="I52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6" t="n">
+        <v>100.0449673876359</v>
+      </c>
+      <c r="N52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6" t="n">
         <v>0</v>
       </c>
     </row>
